--- a/survey-resources/data-xls/demo-survey-v1.xlsx
+++ b/survey-resources/data-xls/demo-survey-v1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="477">
   <si>
     <t>type</t>
   </si>
@@ -45,9 +45,6 @@
     <t>relevant</t>
   </si>
   <si>
-    <t>appearance</t>
-  </si>
-  <si>
     <t>calculation</t>
   </si>
   <si>
@@ -96,6 +93,9 @@
     <t>What is your gender?</t>
   </si>
   <si>
+    <t>¿Cuál es su género?</t>
+  </si>
+  <si>
     <t>select_one eq7av60</t>
   </si>
   <si>
@@ -366,9 +366,6 @@
     <t>${Are_you_a_paid_worker} != 'no'</t>
   </si>
   <si>
-    <t>field-list</t>
-  </si>
-  <si>
     <t>select_one xr9ir97</t>
   </si>
   <si>
@@ -510,7 +507,7 @@
     <t>__version__</t>
   </si>
   <si>
-    <t>'vGmzq2Ku9xGeD9T2tmQaf5'</t>
+    <t>'vBAiJCw48EtstRXoojBZ9x'</t>
   </si>
   <si>
     <t>list_name</t>
@@ -648,24 +645,36 @@
     <t>Man</t>
   </si>
   <si>
+    <t>Hombre</t>
+  </si>
+  <si>
     <t>woman</t>
   </si>
   <si>
     <t>Woman</t>
   </si>
   <si>
+    <t>Mujer</t>
+  </si>
+  <si>
     <t>non_binary_genderqueer_gender_non_confor</t>
   </si>
   <si>
     <t>Non-binary/genderqueer/gender non-conforming</t>
   </si>
   <si>
+    <t>No binaria / genderqueer / género no conforme</t>
+  </si>
+  <si>
     <t>other</t>
   </si>
   <si>
     <t>Other</t>
   </si>
   <si>
+    <t>Otro</t>
+  </si>
+  <si>
     <t>eq7av60</t>
   </si>
   <si>
@@ -675,18 +684,12 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>Mujer</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
     <t>hw6ou02</t>
   </si>
   <si>
@@ -762,9 +765,6 @@
     <t>Multirracial / Multiétnicx</t>
   </si>
   <si>
-    <t>Otro</t>
-  </si>
-  <si>
     <t>mw0ph17</t>
   </si>
   <si>
@@ -1443,7 +1443,7 @@
     <t>pages</t>
   </si>
   <si>
-    <t>1 (2022-07-28 17:57:08)</t>
+    <t>1 (2022-07-28 20:55:38)</t>
   </si>
   <si>
     <t>English (en)</t>
@@ -1778,13 +1778,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1815,75 +1815,75 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G4" t="s">
         <v>16</v>
       </c>
-      <c r="G4" t="s">
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" t="s">
+      <c r="G5" t="s">
         <v>21</v>
       </c>
-      <c r="G5" t="s">
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1897,13 +1897,13 @@
         <v>29</v>
       </c>
       <c r="G7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -1923,10 +1923,10 @@
         <v>36</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -1940,10 +1940,10 @@
         <v>40</v>
       </c>
       <c r="G9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -1963,10 +1963,10 @@
         <v>46</v>
       </c>
       <c r="G10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -1980,10 +1980,10 @@
         <v>50</v>
       </c>
       <c r="G11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -1997,10 +1997,10 @@
         <v>54</v>
       </c>
       <c r="G12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>55</v>
       </c>
@@ -2014,20 +2014,20 @@
         <v>58</v>
       </c>
       <c r="G13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I13" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
         <v>61</v>
@@ -2039,10 +2039,10 @@
         <v>63</v>
       </c>
       <c r="G15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>64</v>
       </c>
@@ -2056,10 +2056,10 @@
         <v>67</v>
       </c>
       <c r="G16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -2073,10 +2073,10 @@
         <v>71</v>
       </c>
       <c r="G17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>72</v>
       </c>
@@ -2096,10 +2096,10 @@
         <v>77</v>
       </c>
       <c r="G18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>78</v>
       </c>
@@ -2113,10 +2113,10 @@
         <v>81</v>
       </c>
       <c r="G19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>82</v>
       </c>
@@ -2130,10 +2130,10 @@
         <v>85</v>
       </c>
       <c r="G20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>82</v>
       </c>
@@ -2147,10 +2147,10 @@
         <v>88</v>
       </c>
       <c r="G21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>89</v>
       </c>
@@ -2164,10 +2164,10 @@
         <v>92</v>
       </c>
       <c r="G22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>93</v>
       </c>
@@ -2187,10 +2187,10 @@
         <v>98</v>
       </c>
       <c r="G23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>99</v>
       </c>
@@ -2204,10 +2204,10 @@
         <v>102</v>
       </c>
       <c r="G24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>103</v>
       </c>
@@ -2221,10 +2221,10 @@
         <v>106</v>
       </c>
       <c r="G25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>107</v>
       </c>
@@ -2238,20 +2238,20 @@
         <v>110</v>
       </c>
       <c r="G26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I26" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B28" t="s">
         <v>112</v>
@@ -2263,150 +2263,147 @@
         <v>114</v>
       </c>
       <c r="G28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I28" t="s">
         <v>115</v>
       </c>
-      <c r="J28" t="s">
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" t="s">
+      <c r="B29" t="s">
         <v>117</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>118</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>119</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>120</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>121</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
         <v>122</v>
       </c>
-      <c r="G29" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" t="s">
+      <c r="B30" t="s">
         <v>123</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>124</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>125</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>126</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>127</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
         <v>128</v>
       </c>
-      <c r="G30" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" t="s">
+      <c r="B31" t="s">
         <v>129</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>130</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>131</v>
       </c>
-      <c r="D31" t="s">
+      <c r="G31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
         <v>132</v>
       </c>
-      <c r="G31" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" t="s">
+      <c r="B32" t="s">
         <v>133</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>134</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>135</v>
       </c>
-      <c r="D32" t="s">
+      <c r="G32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
         <v>136</v>
       </c>
-      <c r="G32" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" t="s">
+      <c r="B33" t="s">
         <v>137</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>138</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>139</v>
       </c>
-      <c r="D33" t="s">
+      <c r="G33" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
         <v>140</v>
       </c>
-      <c r="G33" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" t="s">
+      <c r="B34" t="s">
         <v>141</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>142</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>143</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>144</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>145</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
+        <v>21</v>
+      </c>
+      <c r="I34" t="s">
         <v>146</v>
       </c>
-      <c r="G34" t="s">
-        <v>22</v>
-      </c>
-      <c r="I34" t="s">
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" t="s">
+      <c r="B35" t="s">
         <v>148</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>149</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>150</v>
-      </c>
-      <c r="D35" t="s">
-        <v>151</v>
       </c>
       <c r="E35" t="s">
         <v>35</v>
@@ -2415,63 +2412,63 @@
         <v>36</v>
       </c>
       <c r="G35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I35" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" t="s">
+      <c r="B36" t="s">
         <v>153</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>154</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>155</v>
       </c>
-      <c r="D36" t="s">
+      <c r="G36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
         <v>156</v>
       </c>
-      <c r="G36" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" t="s">
+      <c r="B37" t="s">
         <v>157</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>158</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>159</v>
       </c>
-      <c r="D37" t="s">
+      <c r="G37" t="s">
+        <v>21</v>
+      </c>
+      <c r="I37" t="s">
         <v>160</v>
       </c>
-      <c r="G37" t="s">
-        <v>22</v>
-      </c>
-      <c r="I37" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
+        <v>161</v>
+      </c>
+      <c r="B39" t="s">
         <v>162</v>
       </c>
-      <c r="B39" t="s">
+      <c r="J39" t="s">
         <v>163</v>
-      </c>
-      <c r="K39" t="s">
-        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -2489,7 +2486,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2501,205 +2498,208 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" t="s">
         <v>167</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>168</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>169</v>
-      </c>
-      <c r="D2" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" t="s">
         <v>171</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>172</v>
-      </c>
-      <c r="D3" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" t="s">
         <v>174</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>175</v>
-      </c>
-      <c r="D4" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" t="s">
         <v>177</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>178</v>
-      </c>
-      <c r="D5" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C6" t="s">
         <v>180</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>181</v>
-      </c>
-      <c r="D6" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C7" t="s">
         <v>183</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>184</v>
-      </c>
-      <c r="D7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" t="s">
         <v>186</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>187</v>
-      </c>
-      <c r="D8" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C9" t="s">
         <v>189</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>190</v>
-      </c>
-      <c r="D9" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B10" t="s">
+        <v>191</v>
+      </c>
+      <c r="C10" t="s">
         <v>192</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>193</v>
-      </c>
-      <c r="D10" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C11" t="s">
         <v>195</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>196</v>
-      </c>
-      <c r="D11" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B12" t="s">
+        <v>197</v>
+      </c>
+      <c r="C12" t="s">
         <v>198</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>199</v>
-      </c>
-      <c r="D12" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B13" t="s">
+        <v>200</v>
+      </c>
+      <c r="C13" t="s">
         <v>201</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>202</v>
-      </c>
-      <c r="D13" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B14" t="s">
+        <v>203</v>
+      </c>
+      <c r="C14" t="s">
         <v>204</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>205</v>
-      </c>
-      <c r="D14" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
+        <v>206</v>
+      </c>
+      <c r="B15" t="s">
         <v>207</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>208</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B16" t="s">
         <v>210</v>
@@ -2707,220 +2707,232 @@
       <c r="C16" t="s">
         <v>211</v>
       </c>
+      <c r="D16" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B17" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C17" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="D17" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B18" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C18" t="s">
-        <v>215</v>
+        <v>217</v>
+      </c>
+      <c r="D18" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B19" t="s">
+        <v>203</v>
+      </c>
+      <c r="C19" t="s">
         <v>204</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B20" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C20" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D20" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B21" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C21" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D21" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B22" t="s">
+        <v>203</v>
+      </c>
+      <c r="C22" t="s">
         <v>204</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>205</v>
-      </c>
-      <c r="D22" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B23" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C23" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D23" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B24" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C24" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D24" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B25" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C25" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D25" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B26" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C26" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D26" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B27" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C27" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D27" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B28" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C28" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D28" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B29" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C29" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D29" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B30" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C30" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D30" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B31" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C31" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D31" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B32" t="s">
+        <v>203</v>
+      </c>
+      <c r="C32" t="s">
         <v>204</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>205</v>
-      </c>
-      <c r="D32" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2928,10 +2940,10 @@
         <v>249</v>
       </c>
       <c r="B33" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C33" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D33" t="s">
         <v>250</v>
@@ -2942,13 +2954,13 @@
         <v>249</v>
       </c>
       <c r="B34" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C34" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D34" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2956,13 +2968,13 @@
         <v>249</v>
       </c>
       <c r="B35" t="s">
+        <v>203</v>
+      </c>
+      <c r="C35" t="s">
         <v>204</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>205</v>
-      </c>
-      <c r="D35" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -3040,13 +3052,13 @@
         <v>251</v>
       </c>
       <c r="B41" t="s">
+        <v>203</v>
+      </c>
+      <c r="C41" t="s">
         <v>204</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>205</v>
-      </c>
-      <c r="D41" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -3124,13 +3136,13 @@
         <v>267</v>
       </c>
       <c r="B47" t="s">
+        <v>203</v>
+      </c>
+      <c r="C47" t="s">
         <v>204</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>205</v>
-      </c>
-      <c r="D47" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -3138,10 +3150,10 @@
         <v>283</v>
       </c>
       <c r="B48" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C48" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D48" t="s">
         <v>284</v>
@@ -3152,13 +3164,13 @@
         <v>283</v>
       </c>
       <c r="B49" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C49" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D49" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3166,13 +3178,13 @@
         <v>283</v>
       </c>
       <c r="B50" t="s">
+        <v>203</v>
+      </c>
+      <c r="C50" t="s">
         <v>204</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>205</v>
-      </c>
-      <c r="D50" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -3228,13 +3240,13 @@
         <v>285</v>
       </c>
       <c r="B54" t="s">
+        <v>203</v>
+      </c>
+      <c r="C54" t="s">
         <v>204</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>205</v>
-      </c>
-      <c r="D54" t="s">
-        <v>206</v>
       </c>
       <c r="E54">
         <v>3</v>
@@ -3293,13 +3305,13 @@
         <v>295</v>
       </c>
       <c r="B58" t="s">
+        <v>203</v>
+      </c>
+      <c r="C58" t="s">
         <v>204</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>205</v>
-      </c>
-      <c r="D58" t="s">
-        <v>206</v>
       </c>
       <c r="E58">
         <v>3</v>
@@ -3375,13 +3387,13 @@
         <v>305</v>
       </c>
       <c r="B63" t="s">
+        <v>203</v>
+      </c>
+      <c r="C63" t="s">
         <v>204</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>205</v>
-      </c>
-      <c r="D63" t="s">
-        <v>206</v>
       </c>
       <c r="E63">
         <v>4</v>
@@ -3476,13 +3488,13 @@
         <v>318</v>
       </c>
       <c r="B70" t="s">
+        <v>203</v>
+      </c>
+      <c r="C70" t="s">
         <v>204</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>205</v>
-      </c>
-      <c r="D70" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -3602,13 +3614,13 @@
         <v>337</v>
       </c>
       <c r="B79" t="s">
+        <v>203</v>
+      </c>
+      <c r="C79" t="s">
         <v>204</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
         <v>205</v>
-      </c>
-      <c r="D79" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3715,13 +3727,13 @@
         <v>348</v>
       </c>
       <c r="B86" t="s">
+        <v>203</v>
+      </c>
+      <c r="C86" t="s">
         <v>204</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
         <v>205</v>
-      </c>
-      <c r="D86" t="s">
-        <v>206</v>
       </c>
       <c r="E86" t="s">
         <v>343</v>
@@ -3816,13 +3828,13 @@
         <v>353</v>
       </c>
       <c r="B93" t="s">
+        <v>203</v>
+      </c>
+      <c r="C93" t="s">
         <v>204</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
         <v>205</v>
-      </c>
-      <c r="D93" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -3900,13 +3912,13 @@
         <v>354</v>
       </c>
       <c r="B99" t="s">
+        <v>203</v>
+      </c>
+      <c r="C99" t="s">
         <v>204</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
         <v>205</v>
-      </c>
-      <c r="D99" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -4012,13 +4024,13 @@
         <v>358</v>
       </c>
       <c r="B107" t="s">
+        <v>203</v>
+      </c>
+      <c r="C107" t="s">
         <v>204</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D107" t="s">
         <v>205</v>
-      </c>
-      <c r="D107" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -4026,10 +4038,10 @@
         <v>379</v>
       </c>
       <c r="B108" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C108" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D108" t="s">
         <v>250</v>
@@ -4040,13 +4052,13 @@
         <v>379</v>
       </c>
       <c r="B109" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C109" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D109" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -4054,13 +4066,13 @@
         <v>379</v>
       </c>
       <c r="B110" t="s">
+        <v>203</v>
+      </c>
+      <c r="C110" t="s">
         <v>204</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
         <v>205</v>
-      </c>
-      <c r="D110" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -4110,10 +4122,10 @@
         <v>380</v>
       </c>
       <c r="B114" t="s">
+        <v>203</v>
+      </c>
+      <c r="C114" t="s">
         <v>204</v>
-      </c>
-      <c r="C114" t="s">
-        <v>205</v>
       </c>
       <c r="D114" t="s">
         <v>390</v>
@@ -4124,10 +4136,10 @@
         <v>391</v>
       </c>
       <c r="B115" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C115" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D115" t="s">
         <v>250</v>
@@ -4138,13 +4150,13 @@
         <v>391</v>
       </c>
       <c r="B116" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C116" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D116" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -4152,10 +4164,10 @@
         <v>391</v>
       </c>
       <c r="B117" t="s">
+        <v>203</v>
+      </c>
+      <c r="C117" t="s">
         <v>204</v>
-      </c>
-      <c r="C117" t="s">
-        <v>205</v>
       </c>
       <c r="D117" t="s">
         <v>390</v>
@@ -4194,10 +4206,10 @@
         <v>392</v>
       </c>
       <c r="B120" t="s">
+        <v>203</v>
+      </c>
+      <c r="C120" t="s">
         <v>204</v>
-      </c>
-      <c r="C120" t="s">
-        <v>205</v>
       </c>
       <c r="D120" t="s">
         <v>390</v>
@@ -4264,13 +4276,13 @@
         <v>399</v>
       </c>
       <c r="B125" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C125" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D125" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -4278,10 +4290,10 @@
         <v>399</v>
       </c>
       <c r="B126" t="s">
+        <v>203</v>
+      </c>
+      <c r="C126" t="s">
         <v>204</v>
-      </c>
-      <c r="C126" t="s">
-        <v>205</v>
       </c>
       <c r="D126" t="s">
         <v>390</v>
@@ -4292,10 +4304,10 @@
         <v>412</v>
       </c>
       <c r="B127" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C127" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D127" t="s">
         <v>250</v>
@@ -4306,13 +4318,13 @@
         <v>412</v>
       </c>
       <c r="B128" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C128" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D128" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -4320,10 +4332,10 @@
         <v>412</v>
       </c>
       <c r="B129" t="s">
+        <v>203</v>
+      </c>
+      <c r="C129" t="s">
         <v>204</v>
-      </c>
-      <c r="C129" t="s">
-        <v>205</v>
       </c>
       <c r="D129" t="s">
         <v>390</v>
@@ -4334,10 +4346,10 @@
         <v>413</v>
       </c>
       <c r="B130" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C130" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D130" t="s">
         <v>250</v>
@@ -4348,13 +4360,13 @@
         <v>413</v>
       </c>
       <c r="B131" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C131" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D131" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -4362,10 +4374,10 @@
         <v>413</v>
       </c>
       <c r="B132" t="s">
+        <v>203</v>
+      </c>
+      <c r="C132" t="s">
         <v>204</v>
-      </c>
-      <c r="C132" t="s">
-        <v>205</v>
       </c>
       <c r="D132" t="s">
         <v>390</v>
@@ -4488,10 +4500,10 @@
         <v>414</v>
       </c>
       <c r="B141" t="s">
+        <v>203</v>
+      </c>
+      <c r="C141" t="s">
         <v>204</v>
-      </c>
-      <c r="C141" t="s">
-        <v>205</v>
       </c>
       <c r="D141" t="s">
         <v>390</v>
@@ -4600,13 +4612,13 @@
         <v>415</v>
       </c>
       <c r="B149" t="s">
+        <v>203</v>
+      </c>
+      <c r="C149" t="s">
         <v>204</v>
       </c>
-      <c r="C149" t="s">
+      <c r="D149" t="s">
         <v>205</v>
-      </c>
-      <c r="D149" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -4767,10 +4779,10 @@
         <v>460</v>
       </c>
       <c r="C159" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D159" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="E159" t="s">
         <v>461</v>
@@ -4781,13 +4793,13 @@
         <v>437</v>
       </c>
       <c r="B160" t="s">
+        <v>203</v>
+      </c>
+      <c r="C160" t="s">
         <v>204</v>
       </c>
-      <c r="C160" t="s">
+      <c r="D160" t="s">
         <v>205</v>
-      </c>
-      <c r="D160" t="s">
-        <v>206</v>
       </c>
       <c r="E160" t="s">
         <v>462</v>
@@ -4899,10 +4911,10 @@
         <v>460</v>
       </c>
       <c r="C168" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D168" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4910,13 +4922,13 @@
         <v>463</v>
       </c>
       <c r="B169" t="s">
+        <v>203</v>
+      </c>
+      <c r="C169" t="s">
         <v>204</v>
       </c>
-      <c r="C169" t="s">
+      <c r="D169" t="s">
         <v>205</v>
-      </c>
-      <c r="D169" t="s">
-        <v>206</v>
       </c>
     </row>
   </sheetData>
